--- a/Collections/Gbr bai ro'i rgyud 'bum/json.xlsx
+++ b/Collections/Gbr bai ro'i rgyud 'bum/json.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\GitHub\rKTs\Collections\Gbr bai ro'i rgyud 'bum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EAC40F-CF52-44F2-BF57-73BC7C8A0FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E938A1-D63D-4328-A909-6ACD09A7CAFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="855" windowWidth="16545" windowHeight="19200" activeTab="2" xr2:uid="{8E27F229-CDE5-42DE-8DB5-46396D76831B}"/>
+    <workbookView xWindow="1320" yWindow="855" windowWidth="16545" windowHeight="19200" activeTab="3" xr2:uid="{8E27F229-CDE5-42DE-8DB5-46396D76831B}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
     <sheet name="02" sheetId="3" r:id="rId2"/>
     <sheet name="03" sheetId="4" r:id="rId3"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId4"/>
+    <sheet name="04" sheetId="5" r:id="rId4"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>{</t>
   </si>
@@ -64,6 +65,9 @@
   </si>
   <si>
     <t>","file":"bdr:I0579::0579</t>
+  </si>
+  <si>
+    <t>","file":"bdr:I0580::0580</t>
   </si>
 </sst>
 </file>
@@ -109,7 +113,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -29401,22 +29425,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:T2 S718:S719 S720:T1048576 R722:R1048576 O652:Q737 N602:N737 L738:L953 N738:Q953 K954:Q1048576 J720:J1048576 C725:I1048576">
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P584:P651">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N588:N601">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E724">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44958,12 +44982,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I2">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E410">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44975,8 +44999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB7B5E6-F314-4FC9-9ECF-EE2ED24753CF}">
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:I435"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61445,11 +61469,3678 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I2">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:E444">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462DE82E-414D-4090-8A56-9878EE31B4E2}">
+  <dimension ref="A1:I97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>B2</f>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C3">
+        <f>IF(D2="a",C2,C2+1)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(D2="a","b","a")</f>
+        <v>b</v>
+      </c>
+      <c r="E3" t="str">
+        <f>E2</f>
+        <v>","psection":"</v>
+      </c>
+      <c r="F3">
+        <f>IF(C3=1,F1+1,F2)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>G2</f>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H3" s="1">
+        <f>H2+1</f>
+        <v>13</v>
+      </c>
+      <c r="I3" t="str">
+        <f>I2</f>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4" si="1">B3</f>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4" si="2">IF(D3="a",C3,C3+1)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4" si="3">IF(D3="a","b","a")</f>
+        <v>a</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4" si="4">E3</f>
+        <v>","psection":"</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4" si="5">IF(C4=1,F2+1,F3)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4" si="6">G3</f>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4" si="7">H3+1</f>
+        <v>14</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4" si="8">I3</f>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:A60" si="9">A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B60" si="10">B4</f>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C60" si="11">IF(D4="a",C4,C4+1)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D60" si="12">IF(D4="a","b","a")</f>
+        <v>b</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E60" si="13">E4</f>
+        <v>","psection":"</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F60" si="14">IF(C5=1,F3+1,F4)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G60" si="15">G4</f>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H60" si="16">H4+1</f>
+        <v>15</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I60" si="17">I4</f>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="16"/>
+        <v>26</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="16"/>
+        <v>33</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="16"/>
+        <v>34</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="16"/>
+        <v>35</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="16"/>
+        <v>36</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="16"/>
+        <v>37</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="16"/>
+        <v>38</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="16"/>
+        <v>39</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="16"/>
+        <v>41</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="16"/>
+        <v>42</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="16"/>
+        <v>43</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="16"/>
+        <v>47</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="16"/>
+        <v>51</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="16"/>
+        <v>53</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="16"/>
+        <v>54</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="16"/>
+        <v>55</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="16"/>
+        <v>56</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="16"/>
+        <v>58</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="16"/>
+        <v>59</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="16"/>
+        <v>61</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="16"/>
+        <v>63</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="16"/>
+        <v>65</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="16"/>
+        <v>66</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="16"/>
+        <v>67</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="12"/>
+        <v>b</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="16"/>
+        <v>69</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="10"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="12"/>
+        <v>a</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="13"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="15"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="17"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" ref="A61:A97" si="18">A60+1</f>
+        <v>60</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" ref="B61:B97" si="19">B60</f>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:C97" si="20">IF(D60="a",C60,C60+1)</f>
+        <v>5</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" ref="D61:D97" si="21">IF(D60="a","b","a")</f>
+        <v>b</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" ref="E61:E97" si="22">E60</f>
+        <v>","psection":"</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61:F97" si="23">IF(C61=1,F59+1,F60)</f>
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" ref="G61:G97" si="24">G60</f>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" ref="H61:H97" si="25">H60+1</f>
+        <v>71</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" ref="I61:I97" si="26">I60</f>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="18"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="25"/>
+        <v>72</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="25"/>
+        <v>73</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="18"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="25"/>
+        <v>74</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="18"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="25"/>
+        <v>75</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="18"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="25"/>
+        <v>76</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="18"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="25"/>
+        <v>77</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="18"/>
+        <v>67</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="25"/>
+        <v>78</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="18"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="25"/>
+        <v>79</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="18"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="25"/>
+        <v>81</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="25"/>
+        <v>82</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="18"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="25"/>
+        <v>83</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="18"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="25"/>
+        <v>84</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="18"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="25"/>
+        <v>85</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="18"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="25"/>
+        <v>86</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="18"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="25"/>
+        <v>87</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="18"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="25"/>
+        <v>88</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="18"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="25"/>
+        <v>89</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="18"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="18"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="25"/>
+        <v>91</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="18"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="25"/>
+        <v>92</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="18"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="25"/>
+        <v>93</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="18"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="25"/>
+        <v>94</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="18"/>
+        <v>84</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="25"/>
+        <v>95</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="18"/>
+        <v>85</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="25"/>
+        <v>96</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="18"/>
+        <v>86</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="25"/>
+        <v>97</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="18"/>
+        <v>87</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="25"/>
+        <v>98</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="18"/>
+        <v>88</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="25"/>
+        <v>99</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="18"/>
+        <v>89</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="25"/>
+        <v>101</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="18"/>
+        <v>91</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="25"/>
+        <v>102</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="18"/>
+        <v>92</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="25"/>
+        <v>103</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="18"/>
+        <v>93</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="25"/>
+        <v>104</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="18"/>
+        <v>94</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="25"/>
+        <v>105</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="18"/>
+        <v>95</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="21"/>
+        <v>a</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="25"/>
+        <v>106</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="18"/>
+        <v>96</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="19"/>
+        <v>":{"pagination":"</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="21"/>
+        <v>b</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="22"/>
+        <v>","psection":"</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="24"/>
+        <v>","file":"bdr:I0580::0580</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="25"/>
+        <v>107</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="26"/>
+        <v>.tif"},</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:I2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:E444">
+  <conditionalFormatting sqref="C3:E97">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -61458,7 +65149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4270EEFE-BF80-4EAF-ADDC-38ECB62D138C}">
   <dimension ref="A3:F3"/>
   <sheetViews>
@@ -61493,7 +65184,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:D3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
